--- a/testing/testing_plates_202108/strains.xlsx
+++ b/testing/testing_plates_202108/strains.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">strain</t>
   </si>
   <si>
-    <t xml:space="preserve">Pool1</t>
+    <t xml:space="preserve">Pool</t>
   </si>
   <si>
     <t xml:space="preserve">H20</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">5F_FLZ_YPD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool2</t>
   </si>
 </sst>
 </file>
@@ -109,6 +106,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -193,10 +191,10 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.5"/>
   </cols>
@@ -323,7 +321,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
